--- a/Excel_Files/SingleBankStatement.xlsx
+++ b/Excel_Files/SingleBankStatement.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="177">
   <si>
     <t>Account Number</t>
   </si>
@@ -541,7 +541,13 @@
     <t>Traveling bills</t>
   </si>
   <si>
+    <t>Charges</t>
+  </si>
+  <si>
     <t>Rent Received</t>
+  </si>
+  <si>
+    <t>Investment Redemption</t>
   </si>
   <si>
     <t>HDFC Bank</t>
@@ -1841,13 +1847,13 @@
         <v>47</v>
       </c>
       <c r="B72">
-        <v>16046308.48</v>
+        <v>15542031.48</v>
       </c>
       <c r="C72">
         <v>52712</v>
       </c>
       <c r="D72">
-        <v>16099020.48</v>
+        <v>15594743.48</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1855,13 +1861,13 @@
         <v>9</v>
       </c>
       <c r="B73">
-        <v>32718658.96</v>
+        <v>32214381.96</v>
       </c>
       <c r="C73">
         <v>105424</v>
       </c>
       <c r="D73">
-        <v>32824082.96</v>
+        <v>32319805.96</v>
       </c>
     </row>
   </sheetData>
@@ -1895,7 +1901,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1941,7 +1947,7 @@
         <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1961,7 +1967,7 @@
         <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1981,7 +1987,7 @@
         <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2001,7 +2007,7 @@
         <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2021,7 +2027,7 @@
         <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2041,7 +2047,7 @@
         <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2061,7 +2067,7 @@
         <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2081,7 +2087,7 @@
         <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2101,7 +2107,7 @@
         <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2121,7 +2127,7 @@
         <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2141,7 +2147,7 @@
         <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2161,7 +2167,7 @@
         <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2181,7 +2187,7 @@
         <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2201,7 +2207,7 @@
         <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2221,7 +2227,7 @@
         <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2241,7 +2247,7 @@
         <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2261,7 +2267,7 @@
         <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2281,7 +2287,7 @@
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2301,7 +2307,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2321,7 +2327,7 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2341,7 +2347,7 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2361,7 +2367,7 @@
         <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2381,7 +2387,7 @@
         <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2401,7 +2407,7 @@
         <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2421,7 +2427,7 @@
         <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2441,7 +2447,7 @@
         <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2461,7 +2467,7 @@
         <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2481,7 +2487,7 @@
         <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2501,7 +2507,7 @@
         <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2521,7 +2527,7 @@
         <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2541,7 +2547,7 @@
         <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2561,7 +2567,7 @@
         <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2581,7 +2587,7 @@
         <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2601,7 +2607,7 @@
         <v>47</v>
       </c>
       <c r="G35" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2621,7 +2627,7 @@
         <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2641,7 +2647,7 @@
         <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2661,7 +2667,7 @@
         <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2681,7 +2687,7 @@
         <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2701,7 +2707,7 @@
         <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2721,7 +2727,7 @@
         <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2741,7 +2747,7 @@
         <v>47</v>
       </c>
       <c r="G42" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2761,7 +2767,7 @@
         <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2781,7 +2787,7 @@
         <v>47</v>
       </c>
       <c r="G44" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2801,7 +2807,7 @@
         <v>47</v>
       </c>
       <c r="G45" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2821,7 +2827,7 @@
         <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2841,7 +2847,7 @@
         <v>47</v>
       </c>
       <c r="G47" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2861,7 +2867,7 @@
         <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2881,7 +2887,7 @@
         <v>47</v>
       </c>
       <c r="G49" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2901,7 +2907,7 @@
         <v>47</v>
       </c>
       <c r="G50" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2921,7 +2927,7 @@
         <v>47</v>
       </c>
       <c r="G51" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2941,7 +2947,7 @@
         <v>47</v>
       </c>
       <c r="G52" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2961,7 +2967,7 @@
         <v>47</v>
       </c>
       <c r="G53" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2981,7 +2987,7 @@
         <v>47</v>
       </c>
       <c r="G54" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2989,19 +2995,19 @@
         <v>44662</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C55">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E55">
-        <v>-8781795.130000001</v>
+        <v>-8782495.130000001</v>
       </c>
       <c r="F55" t="s">
         <v>47</v>
       </c>
       <c r="G55" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3009,19 +3015,19 @@
         <v>44662</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C56">
-        <v>700</v>
+        <v>7849</v>
       </c>
       <c r="E56">
-        <v>-8782495.130000001</v>
+        <v>-8790344.130000001</v>
       </c>
       <c r="F56" t="s">
         <v>47</v>
       </c>
       <c r="G56" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3029,19 +3035,19 @@
         <v>44662</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C57">
-        <v>7849</v>
+        <v>60935</v>
       </c>
       <c r="E57">
-        <v>-8790344.130000001</v>
+        <v>-8847799.130000001</v>
       </c>
       <c r="F57" t="s">
         <v>47</v>
       </c>
       <c r="G57" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3049,19 +3055,19 @@
         <v>44662</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C58">
-        <v>60935</v>
+        <v>2900</v>
       </c>
       <c r="E58">
-        <v>-8847799.130000001</v>
+        <v>-8120719.13</v>
       </c>
       <c r="F58" t="s">
         <v>47</v>
       </c>
       <c r="G58" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3069,39 +3075,39 @@
         <v>44662</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C59">
-        <v>2900</v>
+        <v>534690</v>
       </c>
       <c r="E59">
-        <v>-8120719.13</v>
+        <v>-8655409.130000001</v>
       </c>
       <c r="F59" t="s">
         <v>47</v>
       </c>
       <c r="G59" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C60">
-        <v>534690</v>
+        <v>1200000</v>
       </c>
       <c r="E60">
-        <v>-8655409.130000001</v>
+        <v>-9855409.130000001</v>
       </c>
       <c r="F60" t="s">
         <v>47</v>
       </c>
       <c r="G60" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3109,39 +3115,39 @@
         <v>44663</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C61">
-        <v>1200000</v>
+        <v>129292</v>
       </c>
       <c r="E61">
-        <v>-9855409.130000001</v>
+        <v>-9981221.130000001</v>
       </c>
       <c r="F61" t="s">
         <v>47</v>
       </c>
       <c r="G61" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C62">
-        <v>129292</v>
+        <v>534690</v>
       </c>
       <c r="E62">
-        <v>-9981221.130000001</v>
+        <v>-9927056.130000001</v>
       </c>
       <c r="F62" t="s">
         <v>47</v>
       </c>
       <c r="G62" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3149,19 +3155,19 @@
         <v>44664</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C63">
-        <v>534690</v>
+        <v>6960</v>
       </c>
       <c r="E63">
-        <v>-9927056.130000001</v>
+        <v>-9934016.130000001</v>
       </c>
       <c r="F63" t="s">
         <v>47</v>
       </c>
       <c r="G63" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3169,10 +3175,10 @@
         <v>44664</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C64">
-        <v>6960</v>
+        <v>250000</v>
       </c>
       <c r="E64">
         <v>-9934016.130000001</v>
@@ -3181,7 +3187,7 @@
         <v>47</v>
       </c>
       <c r="G64" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3189,19 +3195,19 @@
         <v>44664</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C65">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="E65">
-        <v>-9934016.130000001</v>
+        <v>-9875416.130000001</v>
       </c>
       <c r="F65" t="s">
         <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3209,39 +3215,39 @@
         <v>44664</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C66">
-        <v>260000</v>
+        <v>267345</v>
       </c>
       <c r="E66">
-        <v>-9875416.130000001</v>
+        <v>-10142761.13</v>
       </c>
       <c r="F66" t="s">
         <v>47</v>
       </c>
       <c r="G66" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="B67" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C67">
-        <v>267345</v>
+        <v>1268</v>
       </c>
       <c r="E67">
-        <v>-10142761.13</v>
+        <v>-10144029.13</v>
       </c>
       <c r="F67" t="s">
         <v>47</v>
       </c>
       <c r="G67" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3249,19 +3255,19 @@
         <v>44665</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C68">
-        <v>1268</v>
+        <v>739</v>
       </c>
       <c r="E68">
-        <v>-10144029.13</v>
+        <v>-10144768.13</v>
       </c>
       <c r="F68" t="s">
         <v>47</v>
       </c>
       <c r="G68" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3269,59 +3275,59 @@
         <v>44665</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C69">
-        <v>739</v>
+        <v>25000</v>
       </c>
       <c r="E69">
-        <v>-10144768.13</v>
+        <v>-10170568.13</v>
       </c>
       <c r="F69" t="s">
         <v>47</v>
       </c>
       <c r="G69" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>44665</v>
+        <v>44667</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C70">
-        <v>800</v>
+        <v>25000</v>
       </c>
       <c r="E70">
-        <v>-10145568.13</v>
+        <v>-10200967.05</v>
       </c>
       <c r="F70" t="s">
         <v>47</v>
       </c>
       <c r="G70" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>44665</v>
+        <v>44667</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C71">
-        <v>25000</v>
+        <v>7556</v>
       </c>
       <c r="E71">
-        <v>-10170568.13</v>
+        <v>-10208523.05</v>
       </c>
       <c r="F71" t="s">
         <v>47</v>
       </c>
       <c r="G71" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3329,19 +3335,19 @@
         <v>44667</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C72">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="E72">
-        <v>-10200967.05</v>
+        <v>-10213523.05</v>
       </c>
       <c r="F72" t="s">
         <v>47</v>
       </c>
       <c r="G72" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3349,59 +3355,59 @@
         <v>44667</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C73">
-        <v>7556</v>
+        <v>50000</v>
       </c>
       <c r="E73">
-        <v>-10208523.05</v>
+        <v>-10213523.05</v>
       </c>
       <c r="F73" t="s">
         <v>47</v>
       </c>
       <c r="G73" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>44667</v>
+        <v>44669</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C74">
-        <v>5000</v>
+        <v>13290</v>
       </c>
       <c r="E74">
-        <v>-10213523.05</v>
+        <v>-10226813.05</v>
       </c>
       <c r="F74" t="s">
         <v>47</v>
       </c>
       <c r="G74" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>44667</v>
+        <v>44669</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C75">
-        <v>50000</v>
+        <v>201.74</v>
       </c>
       <c r="E75">
-        <v>-10213523.05</v>
+        <v>-9272300.039999999</v>
       </c>
       <c r="F75" t="s">
         <v>47</v>
       </c>
       <c r="G75" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3409,59 +3415,59 @@
         <v>44669</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C76">
-        <v>13290</v>
+        <v>201.74</v>
       </c>
       <c r="E76">
-        <v>-10226813.05</v>
+        <v>-9272501.779999999</v>
       </c>
       <c r="F76" t="s">
         <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>44669</v>
+        <v>44670</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C77">
-        <v>201.74</v>
+        <v>11800</v>
       </c>
       <c r="E77">
-        <v>-9272300.039999999</v>
+        <v>-9285801.779999999</v>
       </c>
       <c r="F77" t="s">
         <v>47</v>
       </c>
       <c r="G77" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>44669</v>
+        <v>44670</v>
       </c>
       <c r="B78" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C78">
-        <v>201.74</v>
+        <v>615</v>
       </c>
       <c r="E78">
-        <v>-9272501.779999999</v>
+        <v>-9286416.779999999</v>
       </c>
       <c r="F78" t="s">
         <v>47</v>
       </c>
       <c r="G78" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3469,19 +3475,19 @@
         <v>44670</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C79">
-        <v>1500</v>
+        <v>9228</v>
       </c>
       <c r="E79">
-        <v>-9274001.779999999</v>
+        <v>-9295644.779999999</v>
       </c>
       <c r="F79" t="s">
         <v>47</v>
       </c>
       <c r="G79" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3489,19 +3495,19 @@
         <v>44670</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C80">
-        <v>11800</v>
+        <v>24889</v>
       </c>
       <c r="E80">
-        <v>-9285801.779999999</v>
+        <v>-9320533.779999999</v>
       </c>
       <c r="F80" t="s">
         <v>47</v>
       </c>
       <c r="G80" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3509,19 +3515,19 @@
         <v>44670</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C81">
-        <v>615</v>
+        <v>267345</v>
       </c>
       <c r="E81">
-        <v>-9286416.779999999</v>
+        <v>-9587878.779999999</v>
       </c>
       <c r="F81" t="s">
         <v>47</v>
       </c>
       <c r="G81" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3529,179 +3535,179 @@
         <v>44670</v>
       </c>
       <c r="B82" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C82">
-        <v>9228</v>
+        <v>250000</v>
       </c>
       <c r="E82">
-        <v>-9295644.779999999</v>
+        <v>-9762381.779999999</v>
       </c>
       <c r="F82" t="s">
         <v>47</v>
       </c>
       <c r="G82" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C83">
-        <v>24889</v>
+        <v>9398</v>
       </c>
       <c r="E83">
-        <v>-9320533.779999999</v>
+        <v>-10062895.78</v>
       </c>
       <c r="F83" t="s">
         <v>47</v>
       </c>
       <c r="G83" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>44670</v>
+        <v>44672</v>
       </c>
       <c r="B84" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C84">
-        <v>267345</v>
+        <v>585920</v>
       </c>
       <c r="E84">
-        <v>-9587878.779999999</v>
+        <v>-9516003.779999999</v>
       </c>
       <c r="F84" t="s">
         <v>47</v>
       </c>
       <c r="G84" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>44670</v>
+        <v>44672</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C85">
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="E85">
-        <v>-9762381.779999999</v>
+        <v>-10016003.78</v>
       </c>
       <c r="F85" t="s">
         <v>47</v>
       </c>
       <c r="G85" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C86">
-        <v>9398</v>
+        <v>246479</v>
       </c>
       <c r="E86">
-        <v>-10062895.78</v>
+        <v>-9992888.73</v>
       </c>
       <c r="F86" t="s">
         <v>47</v>
       </c>
       <c r="G86" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="B87" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C87">
-        <v>585920</v>
+        <v>3000</v>
       </c>
       <c r="E87">
-        <v>-9516003.779999999</v>
+        <v>-9992176.73</v>
       </c>
       <c r="F87" t="s">
         <v>47</v>
       </c>
       <c r="G87" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>44672</v>
+        <v>44674</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C88">
-        <v>500000</v>
+        <v>277</v>
       </c>
       <c r="E88">
-        <v>-10016003.78</v>
+        <v>-9992453.73</v>
       </c>
       <c r="F88" t="s">
         <v>47</v>
       </c>
       <c r="G88" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>44672</v>
+        <v>44674</v>
       </c>
       <c r="B89" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C89">
-        <v>246479</v>
+        <v>1104</v>
       </c>
       <c r="E89">
-        <v>-9992888.73</v>
+        <v>-9993557.73</v>
       </c>
       <c r="F89" t="s">
         <v>47</v>
       </c>
       <c r="G89" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>44673</v>
+        <v>44674</v>
       </c>
       <c r="B90" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C90">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E90">
-        <v>-9992176.73</v>
+        <v>-9995557.73</v>
       </c>
       <c r="F90" t="s">
         <v>47</v>
       </c>
       <c r="G90" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3709,139 +3715,139 @@
         <v>44674</v>
       </c>
       <c r="B91" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C91">
-        <v>277</v>
+        <v>25000</v>
       </c>
       <c r="E91">
-        <v>-9992453.73</v>
+        <v>-10020557.73</v>
       </c>
       <c r="F91" t="s">
         <v>47</v>
       </c>
       <c r="G91" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>44674</v>
+        <v>44676</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C92">
-        <v>1104</v>
+        <v>2000</v>
       </c>
       <c r="E92">
-        <v>-9993557.73</v>
+        <v>-10022557.73</v>
       </c>
       <c r="F92" t="s">
         <v>47</v>
       </c>
       <c r="G92" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>44674</v>
+        <v>44676</v>
       </c>
       <c r="B93" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C93">
-        <v>2000</v>
+        <v>102848</v>
       </c>
       <c r="E93">
-        <v>-9995557.73</v>
+        <v>-10125405.73</v>
       </c>
       <c r="F93" t="s">
         <v>47</v>
       </c>
       <c r="G93" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>44674</v>
+        <v>44676</v>
       </c>
       <c r="B94" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C94">
-        <v>25000</v>
+        <v>200000</v>
       </c>
       <c r="E94">
-        <v>-10020557.73</v>
+        <v>-4501825.73</v>
       </c>
       <c r="F94" t="s">
         <v>47</v>
       </c>
       <c r="G94" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C95">
-        <v>2000</v>
+        <v>500000</v>
       </c>
       <c r="E95">
-        <v>-10022557.73</v>
+        <v>-5001825.73</v>
       </c>
       <c r="F95" t="s">
         <v>47</v>
       </c>
       <c r="G95" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="B96" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C96">
-        <v>102848</v>
+        <v>3069953</v>
       </c>
       <c r="E96">
-        <v>-10125405.73</v>
+        <v>-8071778.73</v>
       </c>
       <c r="F96" t="s">
         <v>47</v>
       </c>
       <c r="G96" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="B97" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C97">
-        <v>200000</v>
+        <v>799978</v>
       </c>
       <c r="E97">
-        <v>-4501825.73</v>
+        <v>-8871756.73</v>
       </c>
       <c r="F97" t="s">
         <v>47</v>
       </c>
       <c r="G97" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3849,19 +3855,19 @@
         <v>44677</v>
       </c>
       <c r="B98" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C98">
-        <v>500000</v>
+        <v>800</v>
       </c>
       <c r="E98">
-        <v>-5001825.73</v>
+        <v>-8872556.73</v>
       </c>
       <c r="F98" t="s">
         <v>47</v>
       </c>
       <c r="G98" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3869,19 +3875,19 @@
         <v>44677</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C99">
-        <v>3069953</v>
+        <v>40100</v>
       </c>
       <c r="E99">
-        <v>-8071778.73</v>
+        <v>-8913256.73</v>
       </c>
       <c r="F99" t="s">
         <v>47</v>
       </c>
       <c r="G99" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3889,19 +3895,19 @@
         <v>44677</v>
       </c>
       <c r="B100" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C100">
-        <v>799978</v>
+        <v>100000</v>
       </c>
       <c r="E100">
-        <v>-8871756.73</v>
+        <v>-9013256.73</v>
       </c>
       <c r="F100" t="s">
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3909,19 +3915,19 @@
         <v>44677</v>
       </c>
       <c r="B101" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C101">
-        <v>800</v>
+        <v>100000</v>
       </c>
       <c r="E101">
-        <v>-8872556.73</v>
+        <v>-8594694.73</v>
       </c>
       <c r="F101" t="s">
         <v>47</v>
       </c>
       <c r="G101" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3929,19 +3935,19 @@
         <v>44677</v>
       </c>
       <c r="B102" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C102">
-        <v>600</v>
+        <v>100000</v>
       </c>
       <c r="E102">
-        <v>-8873156.73</v>
+        <v>-8694694.73</v>
       </c>
       <c r="F102" t="s">
         <v>47</v>
       </c>
       <c r="G102" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3949,19 +3955,19 @@
         <v>44677</v>
       </c>
       <c r="B103" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C103">
-        <v>40100</v>
+        <v>500</v>
       </c>
       <c r="E103">
-        <v>-8913256.73</v>
+        <v>-8654014.73</v>
       </c>
       <c r="F103" t="s">
         <v>47</v>
       </c>
       <c r="G103" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3969,19 +3975,19 @@
         <v>44677</v>
       </c>
       <c r="B104" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C104">
-        <v>100000</v>
+        <v>529825</v>
       </c>
       <c r="E104">
-        <v>-9013256.73</v>
+        <v>-9183839.73</v>
       </c>
       <c r="F104" t="s">
         <v>47</v>
       </c>
       <c r="G104" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3989,279 +3995,159 @@
         <v>44677</v>
       </c>
       <c r="B105" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C105">
-        <v>100000</v>
+        <v>200</v>
       </c>
       <c r="E105">
-        <v>-8594694.73</v>
+        <v>-9184039.73</v>
       </c>
       <c r="F105" t="s">
         <v>47</v>
       </c>
       <c r="G105" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="B106" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C106">
-        <v>100000</v>
+        <v>27754</v>
       </c>
       <c r="E106">
-        <v>-8694694.73</v>
+        <v>-9711793.73</v>
       </c>
       <c r="F106" t="s">
         <v>47</v>
       </c>
       <c r="G106" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>44677</v>
+        <v>44679</v>
       </c>
       <c r="B107" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C107">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="E107">
-        <v>-8654014.73</v>
+        <v>-9190533.73</v>
       </c>
       <c r="F107" t="s">
         <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>44677</v>
+        <v>44679</v>
       </c>
       <c r="B108" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C108">
-        <v>529825</v>
+        <v>460000</v>
       </c>
       <c r="E108">
-        <v>-9183839.73</v>
+        <v>-9150533.73</v>
       </c>
       <c r="F108" t="s">
         <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>44677</v>
+        <v>44680</v>
       </c>
       <c r="B109" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C109">
-        <v>200</v>
+        <v>6254</v>
       </c>
       <c r="E109">
-        <v>-9184039.73</v>
+        <v>-9156787.73</v>
       </c>
       <c r="F109" t="s">
         <v>47</v>
       </c>
       <c r="G109" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>44678</v>
+        <v>44680</v>
       </c>
       <c r="B110" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C110">
-        <v>500000</v>
+        <v>46649</v>
       </c>
       <c r="E110">
-        <v>-9684039.73</v>
+        <v>-9203436.73</v>
       </c>
       <c r="F110" t="s">
         <v>47</v>
       </c>
       <c r="G110" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>44678</v>
+        <v>44680</v>
       </c>
       <c r="B111" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C111">
-        <v>27754</v>
+        <v>2000</v>
       </c>
       <c r="E111">
-        <v>-9711793.73</v>
+        <v>-9205436.73</v>
       </c>
       <c r="F111" t="s">
         <v>47</v>
       </c>
       <c r="G111" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>44679</v>
+        <v>44682</v>
       </c>
       <c r="B112" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C112">
-        <v>877</v>
+        <v>52712</v>
       </c>
       <c r="E112">
-        <v>-9212670.73</v>
+        <v>-9185296.73</v>
       </c>
       <c r="F112" t="s">
         <v>47</v>
       </c>
       <c r="G112" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="2">
-        <v>44679</v>
-      </c>
-      <c r="B113" t="s">
-        <v>161</v>
-      </c>
-      <c r="C113">
-        <v>3000</v>
-      </c>
-      <c r="E113">
-        <v>-9190533.73</v>
-      </c>
-      <c r="F113" t="s">
-        <v>47</v>
-      </c>
-      <c r="G113" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="2">
-        <v>44679</v>
-      </c>
-      <c r="B114" t="s">
-        <v>163</v>
-      </c>
-      <c r="C114">
-        <v>460000</v>
-      </c>
-      <c r="E114">
-        <v>-9150533.73</v>
-      </c>
-      <c r="F114" t="s">
-        <v>47</v>
-      </c>
-      <c r="G114" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B115" t="s">
-        <v>164</v>
-      </c>
-      <c r="C115">
-        <v>6254</v>
-      </c>
-      <c r="E115">
-        <v>-9156787.73</v>
-      </c>
-      <c r="F115" t="s">
-        <v>47</v>
-      </c>
-      <c r="G115" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B116" t="s">
-        <v>165</v>
-      </c>
-      <c r="C116">
-        <v>46649</v>
-      </c>
-      <c r="E116">
-        <v>-9203436.73</v>
-      </c>
-      <c r="F116" t="s">
-        <v>47</v>
-      </c>
-      <c r="G116" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B117" t="s">
-        <v>166</v>
-      </c>
-      <c r="C117">
-        <v>2000</v>
-      </c>
-      <c r="E117">
-        <v>-9205436.73</v>
-      </c>
-      <c r="F117" t="s">
-        <v>47</v>
-      </c>
-      <c r="G117" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="2">
-        <v>44682</v>
-      </c>
-      <c r="B118" t="s">
-        <v>169</v>
-      </c>
-      <c r="C118">
-        <v>52712</v>
-      </c>
-      <c r="E118">
-        <v>-9185296.73</v>
-      </c>
-      <c r="F118" t="s">
-        <v>47</v>
-      </c>
-      <c r="G118" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4271,7 +4157,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4317,7 +4203,7 @@
         <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4337,7 +4223,7 @@
         <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4357,7 +4243,7 @@
         <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4377,7 +4263,7 @@
         <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4397,7 +4283,7 @@
         <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4417,527 +4303,527 @@
         <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>44662</v>
+        <v>44677</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="C8">
         <v>500</v>
       </c>
       <c r="E8">
-        <v>-8781795.130000001</v>
+        <v>-8654014.73</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>44677</v>
+        <v>44670</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C9">
-        <v>500</v>
+        <v>615</v>
       </c>
       <c r="E9">
-        <v>-8654014.73</v>
+        <v>-9286416.779999999</v>
       </c>
       <c r="F9" t="s">
         <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>44677</v>
+        <v>44662</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="C10">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E10">
-        <v>-8873156.73</v>
+        <v>-8782495.130000001</v>
       </c>
       <c r="F10" t="s">
         <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>44670</v>
+        <v>44665</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C11">
-        <v>615</v>
+        <v>739</v>
       </c>
       <c r="E11">
-        <v>-9286416.779999999</v>
+        <v>-10144768.13</v>
       </c>
       <c r="F11" t="s">
         <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>44662</v>
+        <v>44677</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="C12">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E12">
-        <v>-8782495.130000001</v>
+        <v>-8872556.73</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>44665</v>
+        <v>44658</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="C13">
-        <v>739</v>
+        <v>880</v>
       </c>
       <c r="E13">
-        <v>-10144768.13</v>
+        <v>-7472276.13</v>
       </c>
       <c r="F13" t="s">
         <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>44665</v>
+        <v>44674</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C14">
-        <v>800</v>
+        <v>1104</v>
       </c>
       <c r="E14">
-        <v>-10145568.13</v>
+        <v>-9993557.73</v>
       </c>
       <c r="F14" t="s">
         <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>44677</v>
+        <v>44665</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="C15">
-        <v>800</v>
+        <v>1268</v>
       </c>
       <c r="E15">
-        <v>-8872556.73</v>
+        <v>-10144029.13</v>
       </c>
       <c r="F15" t="s">
         <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>44679</v>
+        <v>44674</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C16">
-        <v>877</v>
+        <v>2000</v>
       </c>
       <c r="E16">
-        <v>-9212670.73</v>
+        <v>-9995557.73</v>
       </c>
       <c r="F16" t="s">
         <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>44658</v>
+        <v>44676</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="C17">
-        <v>880</v>
+        <v>2000</v>
       </c>
       <c r="E17">
-        <v>-7472276.13</v>
+        <v>-10022557.73</v>
       </c>
       <c r="F17" t="s">
         <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>44674</v>
+        <v>44680</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C18">
-        <v>1104</v>
+        <v>2000</v>
       </c>
       <c r="E18">
-        <v>-9993557.73</v>
+        <v>-9205436.73</v>
       </c>
       <c r="F18" t="s">
         <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>44665</v>
+        <v>44662</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C19">
-        <v>1268</v>
+        <v>2875</v>
       </c>
       <c r="E19">
-        <v>-10144029.13</v>
+        <v>-8780813.130000001</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>44670</v>
+        <v>44662</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C20">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="E20">
-        <v>-9274001.779999999</v>
+        <v>-8120719.13</v>
       </c>
       <c r="F20" t="s">
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>44674</v>
+        <v>44673</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C21">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E21">
-        <v>-9995557.73</v>
+        <v>-9992176.73</v>
       </c>
       <c r="F21" t="s">
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>44676</v>
+        <v>44679</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C22">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E22">
-        <v>-10022557.73</v>
+        <v>-9190533.73</v>
       </c>
       <c r="F22" t="s">
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>44680</v>
+        <v>44659</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="C23">
-        <v>2000</v>
+        <v>3240</v>
       </c>
       <c r="E23">
-        <v>-9205436.73</v>
+        <v>-8341834.13</v>
       </c>
       <c r="F23" t="s">
         <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>44662</v>
+        <v>44667</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C24">
-        <v>2875</v>
+        <v>5000</v>
       </c>
       <c r="E24">
-        <v>-8780813.130000001</v>
+        <v>-10213523.05</v>
       </c>
       <c r="F24" t="s">
         <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>44662</v>
+        <v>44680</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="C25">
-        <v>2900</v>
+        <v>6254</v>
       </c>
       <c r="E25">
-        <v>-8120719.13</v>
+        <v>-9156787.73</v>
       </c>
       <c r="F25" t="s">
         <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>44673</v>
+        <v>44664</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C26">
-        <v>3000</v>
+        <v>6960</v>
       </c>
       <c r="E26">
-        <v>-9992176.73</v>
+        <v>-9934016.130000001</v>
       </c>
       <c r="F26" t="s">
         <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>44679</v>
+        <v>44667</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="C27">
-        <v>3000</v>
+        <v>7556</v>
       </c>
       <c r="E27">
-        <v>-9190533.73</v>
+        <v>-10208523.05</v>
       </c>
       <c r="F27" t="s">
         <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C28">
-        <v>3240</v>
+        <v>7849</v>
       </c>
       <c r="E28">
-        <v>-8341834.13</v>
+        <v>-8790344.130000001</v>
       </c>
       <c r="F28" t="s">
         <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C29">
-        <v>5000</v>
+        <v>9228</v>
       </c>
       <c r="E29">
-        <v>-10213523.05</v>
+        <v>-9295644.779999999</v>
       </c>
       <c r="F29" t="s">
         <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="C30">
-        <v>6254</v>
+        <v>9398</v>
       </c>
       <c r="E30">
-        <v>-9156787.73</v>
+        <v>-10062895.78</v>
       </c>
       <c r="F30" t="s">
         <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>44664</v>
+        <v>44652</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C31">
-        <v>6960</v>
+        <v>10000</v>
       </c>
       <c r="E31">
-        <v>-9934016.130000001</v>
+        <v>-10171737.13</v>
       </c>
       <c r="F31" t="s">
         <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C32">
-        <v>7556</v>
+        <v>11800</v>
       </c>
       <c r="E32">
-        <v>-10208523.05</v>
+        <v>-9285801.779999999</v>
       </c>
       <c r="F32" t="s">
         <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>44662</v>
+        <v>44669</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C33">
-        <v>7849</v>
+        <v>13290</v>
       </c>
       <c r="E33">
-        <v>-8790344.130000001</v>
+        <v>-10226813.05</v>
       </c>
       <c r="F33" t="s">
         <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4945,179 +4831,179 @@
         <v>44670</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C34">
-        <v>9228</v>
+        <v>24889</v>
       </c>
       <c r="E34">
-        <v>-9295644.779999999</v>
+        <v>-9320533.779999999</v>
       </c>
       <c r="F34" t="s">
         <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>44671</v>
+        <v>44665</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C35">
-        <v>9398</v>
+        <v>25000</v>
       </c>
       <c r="E35">
-        <v>-10062895.78</v>
+        <v>-10170568.13</v>
       </c>
       <c r="F35" t="s">
         <v>47</v>
       </c>
       <c r="G35" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C36">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="E36">
-        <v>-10171737.13</v>
+        <v>-10200967.05</v>
       </c>
       <c r="F36" t="s">
         <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>44670</v>
+        <v>44674</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C37">
-        <v>11800</v>
+        <v>25000</v>
       </c>
       <c r="E37">
-        <v>-9285801.779999999</v>
+        <v>-10020557.73</v>
       </c>
       <c r="F37" t="s">
         <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>44669</v>
+        <v>44656</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="C38">
-        <v>13290</v>
+        <v>25200</v>
       </c>
       <c r="E38">
-        <v>-10226813.05</v>
+        <v>-10003191.13</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>44670</v>
+        <v>44678</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C39">
-        <v>24889</v>
+        <v>27754</v>
       </c>
       <c r="E39">
-        <v>-9320533.779999999</v>
+        <v>-9711793.73</v>
       </c>
       <c r="F39" t="s">
         <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>44665</v>
+        <v>44677</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C40">
-        <v>25000</v>
+        <v>40100</v>
       </c>
       <c r="E40">
-        <v>-10170568.13</v>
+        <v>-8913256.73</v>
       </c>
       <c r="F40" t="s">
         <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>44667</v>
+        <v>44680</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="C41">
-        <v>25000</v>
+        <v>46649</v>
       </c>
       <c r="E41">
-        <v>-10200967.05</v>
+        <v>-9203436.73</v>
       </c>
       <c r="F41" t="s">
         <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>44674</v>
+        <v>44667</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C42">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="E42">
-        <v>-10020557.73</v>
+        <v>-10213523.05</v>
       </c>
       <c r="F42" t="s">
         <v>47</v>
       </c>
       <c r="G42" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5125,599 +5011,599 @@
         <v>44656</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C43">
-        <v>25200</v>
+        <v>51148</v>
       </c>
       <c r="E43">
-        <v>-10003191.13</v>
+        <v>-9022885.130000001</v>
       </c>
       <c r="F43" t="s">
         <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>44678</v>
+        <v>44682</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C44">
-        <v>27754</v>
+        <v>52712</v>
       </c>
       <c r="E44">
-        <v>-9711793.73</v>
+        <v>-9185296.73</v>
       </c>
       <c r="F44" t="s">
         <v>47</v>
       </c>
       <c r="G44" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>44677</v>
+        <v>44662</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="C45">
-        <v>40100</v>
+        <v>60935</v>
       </c>
       <c r="E45">
-        <v>-8913256.73</v>
+        <v>-8847799.130000001</v>
       </c>
       <c r="F45" t="s">
         <v>47</v>
       </c>
       <c r="G45" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>44680</v>
+        <v>44677</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C46">
-        <v>46649</v>
+        <v>100000</v>
       </c>
       <c r="E46">
-        <v>-9203436.73</v>
+        <v>-9013256.73</v>
       </c>
       <c r="F46" t="s">
         <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>44667</v>
+        <v>44677</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="C47">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E47">
-        <v>-10213523.05</v>
+        <v>-8594694.73</v>
       </c>
       <c r="F47" t="s">
         <v>47</v>
       </c>
       <c r="G47" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>44656</v>
+        <v>44677</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="C48">
-        <v>51148</v>
+        <v>100000</v>
       </c>
       <c r="E48">
-        <v>-9022885.130000001</v>
+        <v>-8694694.73</v>
       </c>
       <c r="F48" t="s">
         <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>44682</v>
+        <v>44658</v>
       </c>
       <c r="B49" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="C49">
-        <v>52712</v>
+        <v>100309</v>
       </c>
       <c r="E49">
-        <v>-9185296.73</v>
+        <v>-7470996.13</v>
       </c>
       <c r="F49" t="s">
         <v>47</v>
       </c>
       <c r="G49" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>44662</v>
+        <v>44676</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="C50">
-        <v>60935</v>
+        <v>102848</v>
       </c>
       <c r="E50">
-        <v>-8847799.130000001</v>
+        <v>-10125405.73</v>
       </c>
       <c r="F50" t="s">
         <v>47</v>
       </c>
       <c r="G50" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>44677</v>
+        <v>44663</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="C51">
-        <v>100000</v>
+        <v>129292</v>
       </c>
       <c r="E51">
-        <v>-9013256.73</v>
+        <v>-9981221.130000001</v>
       </c>
       <c r="F51" t="s">
         <v>47</v>
       </c>
       <c r="G51" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>44677</v>
+        <v>44656</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="C52">
-        <v>100000</v>
+        <v>145857</v>
       </c>
       <c r="E52">
-        <v>-8594694.73</v>
+        <v>-9675245.130000001</v>
       </c>
       <c r="F52" t="s">
         <v>47</v>
       </c>
       <c r="G52" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>44677</v>
+        <v>44658</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="C53">
-        <v>100000</v>
+        <v>183776</v>
       </c>
       <c r="E53">
-        <v>-8694694.73</v>
+        <v>-7389777.13</v>
       </c>
       <c r="F53" t="s">
         <v>47</v>
       </c>
       <c r="G53" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>44658</v>
+        <v>44676</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="C54">
-        <v>100309</v>
+        <v>200000</v>
       </c>
       <c r="E54">
-        <v>-7470996.13</v>
+        <v>-4501825.73</v>
       </c>
       <c r="F54" t="s">
         <v>47</v>
       </c>
       <c r="G54" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>44676</v>
+        <v>44658</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="C55">
-        <v>102848</v>
+        <v>229512</v>
       </c>
       <c r="E55">
-        <v>-10125405.73</v>
+        <v>-7701788.13</v>
       </c>
       <c r="F55" t="s">
         <v>47</v>
       </c>
       <c r="G55" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>44663</v>
+        <v>44656</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C56">
-        <v>129292</v>
+        <v>234028</v>
       </c>
       <c r="E56">
-        <v>-9981221.130000001</v>
+        <v>-10237219.13</v>
       </c>
       <c r="F56" t="s">
         <v>47</v>
       </c>
       <c r="G56" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>44656</v>
+        <v>44672</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="C57">
-        <v>145857</v>
+        <v>246479</v>
       </c>
       <c r="E57">
-        <v>-9675245.130000001</v>
+        <v>-9992888.73</v>
       </c>
       <c r="F57" t="s">
         <v>47</v>
       </c>
       <c r="G57" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="C58">
-        <v>183776</v>
+        <v>250000</v>
       </c>
       <c r="E58">
-        <v>-7389777.13</v>
+        <v>-9934016.130000001</v>
       </c>
       <c r="F58" t="s">
         <v>47</v>
       </c>
       <c r="G58" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>44676</v>
+        <v>44670</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C59">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="E59">
-        <v>-4501825.73</v>
+        <v>-9762381.779999999</v>
       </c>
       <c r="F59" t="s">
         <v>47</v>
       </c>
       <c r="G59" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C60">
-        <v>229512</v>
+        <v>260000</v>
       </c>
       <c r="E60">
-        <v>-7701788.13</v>
+        <v>-9875416.130000001</v>
       </c>
       <c r="F60" t="s">
         <v>47</v>
       </c>
       <c r="G60" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>44656</v>
+        <v>44659</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C61">
-        <v>234028</v>
+        <v>267345</v>
       </c>
       <c r="E61">
-        <v>-10237219.13</v>
+        <v>-8314800.13</v>
       </c>
       <c r="F61" t="s">
         <v>47</v>
       </c>
       <c r="G61" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>44672</v>
+        <v>44664</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C62">
-        <v>246479</v>
+        <v>267345</v>
       </c>
       <c r="E62">
-        <v>-9992888.73</v>
+        <v>-10142761.13</v>
       </c>
       <c r="F62" t="s">
         <v>47</v>
       </c>
       <c r="G62" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>44664</v>
+        <v>44670</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C63">
-        <v>250000</v>
+        <v>267345</v>
       </c>
       <c r="E63">
-        <v>-9934016.130000001</v>
+        <v>-9587878.779999999</v>
       </c>
       <c r="F63" t="s">
         <v>47</v>
       </c>
       <c r="G63" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>44670</v>
+        <v>44659</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="C64">
-        <v>250000</v>
+        <v>267427</v>
       </c>
       <c r="E64">
-        <v>-9762381.779999999</v>
+        <v>-7536559.13</v>
       </c>
       <c r="F64" t="s">
         <v>47</v>
       </c>
       <c r="G64" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>44664</v>
+        <v>44656</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="C65">
-        <v>260000</v>
+        <v>341846</v>
       </c>
       <c r="E65">
-        <v>-9875416.130000001</v>
+        <v>-9997991.130000001</v>
       </c>
       <c r="F65" t="s">
         <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>44659</v>
+        <v>44679</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="C66">
-        <v>267345</v>
+        <v>460000</v>
       </c>
       <c r="E66">
-        <v>-8314800.13</v>
+        <v>-9150533.73</v>
       </c>
       <c r="F66" t="s">
         <v>47</v>
       </c>
       <c r="G66" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>44664</v>
+        <v>44659</v>
       </c>
       <c r="B67" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C67">
-        <v>267345</v>
+        <v>463138</v>
       </c>
       <c r="E67">
-        <v>-10142761.13</v>
+        <v>-8777938.130000001</v>
       </c>
       <c r="F67" t="s">
         <v>47</v>
       </c>
       <c r="G67" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>44670</v>
+        <v>44672</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C68">
-        <v>267345</v>
+        <v>500000</v>
       </c>
       <c r="E68">
-        <v>-9587878.779999999</v>
+        <v>-10016003.78</v>
       </c>
       <c r="F68" t="s">
         <v>47</v>
       </c>
       <c r="G68" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>44659</v>
+        <v>44677</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="C69">
-        <v>267427</v>
+        <v>500000</v>
       </c>
       <c r="E69">
-        <v>-7536559.13</v>
+        <v>-5001825.73</v>
       </c>
       <c r="F69" t="s">
         <v>47</v>
       </c>
       <c r="G69" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>44656</v>
+        <v>44677</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="C70">
-        <v>341846</v>
+        <v>529825</v>
       </c>
       <c r="E70">
-        <v>-9997991.130000001</v>
+        <v>-9183839.73</v>
       </c>
       <c r="F70" t="s">
         <v>47</v>
       </c>
       <c r="G70" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>44679</v>
+        <v>44662</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="C71">
-        <v>460000</v>
+        <v>534690</v>
       </c>
       <c r="E71">
-        <v>-9150533.73</v>
+        <v>-8655409.130000001</v>
       </c>
       <c r="F71" t="s">
         <v>47</v>
       </c>
       <c r="G71" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>44659</v>
+        <v>44664</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C72">
-        <v>463138</v>
+        <v>534690</v>
       </c>
       <c r="E72">
-        <v>-8777938.130000001</v>
+        <v>-9927056.130000001</v>
       </c>
       <c r="F72" t="s">
         <v>47</v>
       </c>
       <c r="G72" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -5725,19 +5611,19 @@
         <v>44672</v>
       </c>
       <c r="B73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C73">
-        <v>500000</v>
+        <v>585920</v>
       </c>
       <c r="E73">
-        <v>-10016003.78</v>
+        <v>-9516003.779999999</v>
       </c>
       <c r="F73" t="s">
         <v>47</v>
       </c>
       <c r="G73" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -5745,899 +5631,779 @@
         <v>44677</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C74">
-        <v>500000</v>
+        <v>799978</v>
       </c>
       <c r="E74">
-        <v>-5001825.73</v>
+        <v>-8871756.73</v>
       </c>
       <c r="F74" t="s">
         <v>47</v>
       </c>
       <c r="G74" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>44678</v>
+        <v>44659</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="C75">
-        <v>500000</v>
+        <v>802035</v>
       </c>
       <c r="E75">
-        <v>-9684039.73</v>
+        <v>-8338594.13</v>
       </c>
       <c r="F75" t="s">
         <v>47</v>
       </c>
       <c r="G75" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>44677</v>
+        <v>44659</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="C76">
-        <v>529825</v>
+        <v>1000000</v>
       </c>
       <c r="E76">
-        <v>-9183839.73</v>
+        <v>-8151679.13</v>
       </c>
       <c r="F76" t="s">
         <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C77">
-        <v>534690</v>
+        <v>1200000</v>
       </c>
       <c r="E77">
-        <v>-8655409.130000001</v>
+        <v>-9855409.130000001</v>
       </c>
       <c r="F77" t="s">
         <v>47</v>
       </c>
       <c r="G77" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>44664</v>
+        <v>44677</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C78">
-        <v>534690</v>
+        <v>3069953</v>
       </c>
       <c r="E78">
-        <v>-9927056.130000001</v>
+        <v>-8071778.73</v>
       </c>
       <c r="F78" t="s">
         <v>47</v>
       </c>
       <c r="G78" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>44672</v>
+        <v>44655</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
-      </c>
-      <c r="C79">
-        <v>585920</v>
+        <v>55</v>
+      </c>
+      <c r="D79">
+        <v>700000</v>
       </c>
       <c r="E79">
-        <v>-9516003.779999999</v>
+        <v>-9471737.130000001</v>
       </c>
       <c r="F79" t="s">
         <v>47</v>
       </c>
       <c r="G79" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>44677</v>
+        <v>44655</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
-      </c>
-      <c r="C80">
-        <v>799978</v>
+        <v>56</v>
+      </c>
+      <c r="D80">
+        <v>200000</v>
       </c>
       <c r="E80">
-        <v>-8871756.73</v>
+        <v>-9271737.130000001</v>
       </c>
       <c r="F80" t="s">
         <v>47</v>
       </c>
       <c r="G80" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>44659</v>
+        <v>44655</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81">
-        <v>802035</v>
+        <v>57</v>
+      </c>
+      <c r="D81">
+        <v>200000</v>
       </c>
       <c r="E81">
-        <v>-8338594.13</v>
+        <v>-9071737.130000001</v>
       </c>
       <c r="F81" t="s">
         <v>47</v>
       </c>
       <c r="G81" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>44659</v>
+        <v>44655</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82">
-        <v>1000000</v>
+        <v>58</v>
+      </c>
+      <c r="D82">
+        <v>100000</v>
       </c>
       <c r="E82">
-        <v>-8151679.13</v>
+        <v>-8971737.130000001</v>
       </c>
       <c r="F82" t="s">
         <v>47</v>
       </c>
       <c r="G82" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>44663</v>
+        <v>44656</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83">
-        <v>1200000</v>
+        <v>63</v>
+      </c>
+      <c r="D83">
+        <v>20000</v>
       </c>
       <c r="E83">
-        <v>-9855409.130000001</v>
+        <v>-9977991.130000001</v>
       </c>
       <c r="F83" t="s">
         <v>47</v>
       </c>
       <c r="G83" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>44677</v>
+        <v>44656</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
-      </c>
-      <c r="C84">
-        <v>3069953</v>
+        <v>66</v>
+      </c>
+      <c r="D84">
+        <v>2825000</v>
       </c>
       <c r="E84">
-        <v>-8071778.73</v>
+        <v>-7412219.13</v>
       </c>
       <c r="F84" t="s">
         <v>47</v>
       </c>
       <c r="G84" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>44655</v>
+        <v>44657</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D85">
-        <v>700000</v>
+        <v>204448</v>
       </c>
       <c r="E85">
-        <v>-9471737.130000001</v>
+        <v>-7207771.13</v>
       </c>
       <c r="F85" t="s">
         <v>47</v>
       </c>
       <c r="G85" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>44655</v>
+        <v>44658</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D86">
-        <v>200000</v>
+        <v>1770</v>
       </c>
       <c r="E86">
-        <v>-9271737.130000001</v>
+        <v>-7206001.13</v>
       </c>
       <c r="F86" t="s">
         <v>47</v>
       </c>
       <c r="G86" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>44655</v>
+        <v>44658</v>
       </c>
       <c r="B87" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D87">
-        <v>200000</v>
+        <v>19090</v>
       </c>
       <c r="E87">
-        <v>-9071737.130000001</v>
+        <v>-7370687.13</v>
       </c>
       <c r="F87" t="s">
         <v>47</v>
       </c>
       <c r="G87" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>44655</v>
+        <v>44659</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D88">
-        <v>100000</v>
+        <v>353119</v>
       </c>
       <c r="E88">
-        <v>-8971737.130000001</v>
+        <v>-7348669.13</v>
       </c>
       <c r="F88" t="s">
         <v>47</v>
       </c>
       <c r="G88" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>44656</v>
+        <v>44659</v>
       </c>
       <c r="B89" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D89">
-        <v>20000</v>
+        <v>196990</v>
       </c>
       <c r="E89">
-        <v>-9977991.130000001</v>
+        <v>-7151679.13</v>
       </c>
       <c r="F89" t="s">
         <v>47</v>
       </c>
       <c r="G89" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>44656</v>
+        <v>44659</v>
       </c>
       <c r="B90" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D90">
-        <v>2825000</v>
+        <v>882547</v>
       </c>
       <c r="E90">
-        <v>-7412219.13</v>
+        <v>-7269132.13</v>
       </c>
       <c r="F90" t="s">
         <v>47</v>
       </c>
       <c r="G90" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D91">
-        <v>204448</v>
+        <v>294379</v>
       </c>
       <c r="E91">
-        <v>-7207771.13</v>
+        <v>-8047455.13</v>
       </c>
       <c r="F91" t="s">
         <v>47</v>
       </c>
       <c r="G91" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>44658</v>
+        <v>44662</v>
       </c>
       <c r="B92" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D92">
-        <v>1770</v>
+        <v>3480</v>
       </c>
       <c r="E92">
-        <v>-7206001.13</v>
+        <v>-8786864.130000001</v>
       </c>
       <c r="F92" t="s">
         <v>47</v>
       </c>
       <c r="G92" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>44658</v>
+        <v>44662</v>
       </c>
       <c r="B93" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D93">
-        <v>19090</v>
+        <v>255097</v>
       </c>
       <c r="E93">
-        <v>-7370687.13</v>
+        <v>-8706577.130000001</v>
       </c>
       <c r="F93" t="s">
         <v>47</v>
       </c>
       <c r="G93" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D94">
-        <v>353119</v>
+        <v>588758</v>
       </c>
       <c r="E94">
-        <v>-7348669.13</v>
+        <v>-8117819.13</v>
       </c>
       <c r="F94" t="s">
         <v>47</v>
       </c>
       <c r="G94" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>44659</v>
+        <v>44663</v>
       </c>
       <c r="B95" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D95">
-        <v>196990</v>
+        <v>3480</v>
       </c>
       <c r="E95">
-        <v>-7151679.13</v>
+        <v>-9851929.130000001</v>
       </c>
       <c r="F95" t="s">
         <v>47</v>
       </c>
       <c r="G95" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>44659</v>
+        <v>44663</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D96">
-        <v>882547</v>
+        <v>588855</v>
       </c>
       <c r="E96">
-        <v>-7269132.13</v>
+        <v>-9392366.130000001</v>
       </c>
       <c r="F96" t="s">
         <v>47</v>
       </c>
       <c r="G96" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>44659</v>
+        <v>44664</v>
       </c>
       <c r="B97" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D97">
-        <v>294379</v>
+        <v>250000</v>
       </c>
       <c r="E97">
-        <v>-8047455.13</v>
+        <v>-9684016.130000001</v>
       </c>
       <c r="F97" t="s">
         <v>47</v>
       </c>
       <c r="G97" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>44662</v>
+        <v>44664</v>
       </c>
       <c r="B98" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D98">
-        <v>3480</v>
+        <v>318600</v>
       </c>
       <c r="E98">
-        <v>-8786864.130000001</v>
+        <v>-9615416.130000001</v>
       </c>
       <c r="F98" t="s">
         <v>47</v>
       </c>
       <c r="G98" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>44662</v>
+        <v>44667</v>
       </c>
       <c r="B99" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D99">
-        <v>255097</v>
+        <v>50000</v>
       </c>
       <c r="E99">
-        <v>-8706577.130000001</v>
+        <v>-10163523.05</v>
       </c>
       <c r="F99" t="s">
         <v>47</v>
       </c>
       <c r="G99" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>44662</v>
+        <v>44669</v>
       </c>
       <c r="B100" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="D100">
-        <v>588758</v>
+        <v>606406</v>
       </c>
       <c r="E100">
-        <v>-8117819.13</v>
+        <v>-9620407.050000001</v>
       </c>
       <c r="F100" t="s">
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>44663</v>
+        <v>44669</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D101">
-        <v>3480</v>
+        <v>348308.75</v>
       </c>
       <c r="E101">
-        <v>-9851929.130000001</v>
+        <v>-9272098.300000001</v>
       </c>
       <c r="F101" t="s">
         <v>47</v>
       </c>
       <c r="G101" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>44663</v>
+        <v>44670</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D102">
-        <v>588855</v>
+        <v>75497</v>
       </c>
       <c r="E102">
-        <v>-9392366.130000001</v>
+        <v>-9512381.779999999</v>
       </c>
       <c r="F102" t="s">
         <v>47</v>
       </c>
       <c r="G102" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="D103">
-        <v>250000</v>
+        <v>1132812</v>
       </c>
       <c r="E103">
-        <v>-9684016.130000001</v>
+        <v>-8930083.779999999</v>
       </c>
       <c r="F103" t="s">
         <v>47</v>
       </c>
       <c r="G103" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>44664</v>
+        <v>44672</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D104">
-        <v>318600</v>
+        <v>269594.05</v>
       </c>
       <c r="E104">
-        <v>-9615416.130000001</v>
+        <v>-9746409.73</v>
       </c>
       <c r="F104" t="s">
         <v>47</v>
       </c>
       <c r="G104" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>44667</v>
+        <v>44672</v>
       </c>
       <c r="B105" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D105">
-        <v>50000</v>
+        <v>3712</v>
       </c>
       <c r="E105">
-        <v>-10163523.05</v>
+        <v>-9989176.73</v>
       </c>
       <c r="F105" t="s">
         <v>47</v>
       </c>
       <c r="G105" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>44669</v>
+        <v>44676</v>
       </c>
       <c r="B106" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D106">
-        <v>606406</v>
+        <v>5823580</v>
       </c>
       <c r="E106">
-        <v>-9620407.050000001</v>
+        <v>-4301825.73</v>
       </c>
       <c r="F106" t="s">
         <v>47</v>
       </c>
       <c r="G106" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>44669</v>
+        <v>44677</v>
       </c>
       <c r="B107" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D107">
-        <v>348308.75</v>
+        <v>518562</v>
       </c>
       <c r="E107">
-        <v>-9272098.300000001</v>
+        <v>-8494694.73</v>
       </c>
       <c r="F107" t="s">
         <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>44670</v>
+        <v>44677</v>
       </c>
       <c r="B108" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D108">
-        <v>75497</v>
+        <v>41180</v>
       </c>
       <c r="E108">
-        <v>-9512381.779999999</v>
+        <v>-8653514.73</v>
       </c>
       <c r="F108" t="s">
         <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B109" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D109">
-        <v>1132812</v>
+        <v>500000</v>
       </c>
       <c r="E109">
-        <v>-8930083.779999999</v>
+        <v>-9211793.73</v>
       </c>
       <c r="F109" t="s">
         <v>47</v>
       </c>
       <c r="G109" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="B110" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="D110">
-        <v>269594.05</v>
+        <v>26993</v>
       </c>
       <c r="E110">
-        <v>-9746409.73</v>
+        <v>-9187533.73</v>
       </c>
       <c r="F110" t="s">
         <v>47</v>
       </c>
       <c r="G110" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="B111" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D111">
-        <v>3712</v>
+        <v>500000</v>
       </c>
       <c r="E111">
-        <v>-9989176.73</v>
+        <v>-8690533.73</v>
       </c>
       <c r="F111" t="s">
         <v>47</v>
       </c>
       <c r="G111" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>44676</v>
+        <v>44681</v>
       </c>
       <c r="B112" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="D112">
-        <v>5823580</v>
+        <v>103232</v>
       </c>
       <c r="E112">
-        <v>-4301825.73</v>
+        <v>-9105036.73</v>
       </c>
       <c r="F112" t="s">
         <v>47</v>
       </c>
       <c r="G112" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="2">
-        <v>44677</v>
-      </c>
-      <c r="B113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D113">
-        <v>518562</v>
-      </c>
-      <c r="E113">
-        <v>-8494694.73</v>
-      </c>
-      <c r="F113" t="s">
-        <v>47</v>
-      </c>
-      <c r="G113" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="2">
-        <v>44677</v>
-      </c>
-      <c r="B114" t="s">
-        <v>152</v>
-      </c>
-      <c r="D114">
-        <v>41180</v>
-      </c>
-      <c r="E114">
-        <v>-8653514.73</v>
-      </c>
-      <c r="F114" t="s">
-        <v>47</v>
-      </c>
-      <c r="G114" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="2">
-        <v>44678</v>
-      </c>
-      <c r="B115" t="s">
-        <v>158</v>
-      </c>
-      <c r="D115">
-        <v>500000</v>
-      </c>
-      <c r="E115">
-        <v>-9211793.73</v>
-      </c>
-      <c r="F115" t="s">
-        <v>47</v>
-      </c>
-      <c r="G115" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="2">
-        <v>44679</v>
-      </c>
-      <c r="B116" t="s">
-        <v>160</v>
-      </c>
-      <c r="D116">
-        <v>26993</v>
-      </c>
-      <c r="E116">
-        <v>-9187533.73</v>
-      </c>
-      <c r="F116" t="s">
-        <v>47</v>
-      </c>
-      <c r="G116" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="2">
-        <v>44679</v>
-      </c>
-      <c r="B117" t="s">
-        <v>162</v>
-      </c>
-      <c r="D117">
-        <v>500000</v>
-      </c>
-      <c r="E117">
-        <v>-8690533.73</v>
-      </c>
-      <c r="F117" t="s">
-        <v>47</v>
-      </c>
-      <c r="G117" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="2">
-        <v>44681</v>
-      </c>
-      <c r="B118" t="s">
-        <v>168</v>
-      </c>
-      <c r="D118">
-        <v>103232</v>
-      </c>
-      <c r="E118">
-        <v>-9105036.73</v>
-      </c>
-      <c r="F118" t="s">
-        <v>47</v>
-      </c>
-      <c r="G118" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6693,7 +6459,7 @@
         <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6713,7 +6479,7 @@
         <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6733,7 +6499,7 @@
         <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6753,7 +6519,7 @@
         <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6773,7 +6539,7 @@
         <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6793,7 +6559,7 @@
         <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6813,7 +6579,7 @@
         <v>170</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6833,7 +6599,7 @@
         <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6853,7 +6619,7 @@
         <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6873,7 +6639,7 @@
         <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6893,7 +6659,7 @@
         <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6913,7 +6679,7 @@
         <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6933,7 +6699,7 @@
         <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6953,7 +6719,7 @@
         <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6973,7 +6739,7 @@
         <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6993,7 +6759,7 @@
         <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -7013,7 +6779,7 @@
         <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -7033,7 +6799,7 @@
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -7053,7 +6819,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7073,7 +6839,7 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -7093,7 +6859,7 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -7113,7 +6879,7 @@
         <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -7133,7 +6899,7 @@
         <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -7153,7 +6919,7 @@
         <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -7173,7 +6939,7 @@
         <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -7193,7 +6959,7 @@
         <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -7213,7 +6979,7 @@
         <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -7233,7 +6999,7 @@
         <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -7253,7 +7019,7 @@
         <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -7273,7 +7039,7 @@
         <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -7293,7 +7059,7 @@
         <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -7313,7 +7079,7 @@
         <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -7333,7 +7099,7 @@
         <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -7350,10 +7116,10 @@
         <v>-8781795.130000001</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="G35" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -7373,7 +7139,7 @@
         <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -7393,7 +7159,7 @@
         <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -7413,7 +7179,7 @@
         <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -7433,7 +7199,7 @@
         <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -7450,10 +7216,10 @@
         <v>-8961674.130000001</v>
       </c>
       <c r="F40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G40" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -7473,7 +7239,7 @@
         <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -7493,7 +7259,7 @@
         <v>47</v>
       </c>
       <c r="G42" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -7513,7 +7279,7 @@
         <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -7533,7 +7299,7 @@
         <v>47</v>
       </c>
       <c r="G44" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -7553,7 +7319,7 @@
         <v>47</v>
       </c>
       <c r="G45" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -7573,7 +7339,7 @@
         <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -7593,7 +7359,7 @@
         <v>47</v>
       </c>
       <c r="G47" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -7613,7 +7379,7 @@
         <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -7633,7 +7399,7 @@
         <v>47</v>
       </c>
       <c r="G49" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -7653,7 +7419,7 @@
         <v>47</v>
       </c>
       <c r="G50" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -7673,7 +7439,7 @@
         <v>47</v>
       </c>
       <c r="G51" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -7693,7 +7459,7 @@
         <v>47</v>
       </c>
       <c r="G52" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -7713,7 +7479,7 @@
         <v>47</v>
       </c>
       <c r="G53" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -7733,7 +7499,7 @@
         <v>47</v>
       </c>
       <c r="G54" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -7753,7 +7519,7 @@
         <v>47</v>
       </c>
       <c r="G55" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -7773,7 +7539,7 @@
         <v>47</v>
       </c>
       <c r="G56" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -7793,7 +7559,7 @@
         <v>47</v>
       </c>
       <c r="G57" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -7810,10 +7576,10 @@
         <v>-10145568.13</v>
       </c>
       <c r="F58" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="G58" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -7833,7 +7599,7 @@
         <v>47</v>
       </c>
       <c r="G59" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -7853,7 +7619,7 @@
         <v>47</v>
       </c>
       <c r="G60" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -7873,7 +7639,7 @@
         <v>47</v>
       </c>
       <c r="G61" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -7893,7 +7659,7 @@
         <v>47</v>
       </c>
       <c r="G62" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -7913,7 +7679,7 @@
         <v>47</v>
       </c>
       <c r="G63" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -7933,7 +7699,7 @@
         <v>47</v>
       </c>
       <c r="G64" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -7953,7 +7719,7 @@
         <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -7973,7 +7739,7 @@
         <v>47</v>
       </c>
       <c r="G66" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -7993,7 +7759,7 @@
         <v>47</v>
       </c>
       <c r="G67" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -8013,7 +7779,7 @@
         <v>47</v>
       </c>
       <c r="G68" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -8033,7 +7799,7 @@
         <v>47</v>
       </c>
       <c r="G69" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -8050,10 +7816,10 @@
         <v>-9274001.779999999</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="G70" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -8073,7 +7839,7 @@
         <v>47</v>
       </c>
       <c r="G71" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -8093,7 +7859,7 @@
         <v>47</v>
       </c>
       <c r="G72" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -8113,7 +7879,7 @@
         <v>47</v>
       </c>
       <c r="G73" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -8133,7 +7899,7 @@
         <v>47</v>
       </c>
       <c r="G74" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -8153,7 +7919,7 @@
         <v>47</v>
       </c>
       <c r="G75" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -8173,7 +7939,7 @@
         <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -8193,7 +7959,7 @@
         <v>47</v>
       </c>
       <c r="G77" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -8213,7 +7979,7 @@
         <v>47</v>
       </c>
       <c r="G78" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -8233,7 +7999,7 @@
         <v>47</v>
       </c>
       <c r="G79" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -8253,7 +8019,7 @@
         <v>47</v>
       </c>
       <c r="G80" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -8273,7 +8039,7 @@
         <v>47</v>
       </c>
       <c r="G81" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -8293,7 +8059,7 @@
         <v>47</v>
       </c>
       <c r="G82" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -8313,7 +8079,7 @@
         <v>47</v>
       </c>
       <c r="G83" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -8333,7 +8099,7 @@
         <v>47</v>
       </c>
       <c r="G84" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -8353,7 +8119,7 @@
         <v>47</v>
       </c>
       <c r="G85" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -8373,7 +8139,7 @@
         <v>47</v>
       </c>
       <c r="G86" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -8393,7 +8159,7 @@
         <v>47</v>
       </c>
       <c r="G87" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -8413,7 +8179,7 @@
         <v>47</v>
       </c>
       <c r="G88" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -8433,7 +8199,7 @@
         <v>47</v>
       </c>
       <c r="G89" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -8453,7 +8219,7 @@
         <v>47</v>
       </c>
       <c r="G90" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -8473,7 +8239,7 @@
         <v>47</v>
       </c>
       <c r="G91" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -8493,7 +8259,7 @@
         <v>47</v>
       </c>
       <c r="G92" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -8513,7 +8279,7 @@
         <v>47</v>
       </c>
       <c r="G93" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -8533,7 +8299,7 @@
         <v>47</v>
       </c>
       <c r="G94" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -8553,7 +8319,7 @@
         <v>47</v>
       </c>
       <c r="G95" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -8573,7 +8339,7 @@
         <v>47</v>
       </c>
       <c r="G96" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -8593,7 +8359,7 @@
         <v>47</v>
       </c>
       <c r="G97" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -8610,10 +8376,10 @@
         <v>-8873156.73</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="G98" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -8633,7 +8399,7 @@
         <v>47</v>
       </c>
       <c r="G99" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -8653,7 +8419,7 @@
         <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -8673,7 +8439,7 @@
         <v>47</v>
       </c>
       <c r="G101" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -8693,7 +8459,7 @@
         <v>47</v>
       </c>
       <c r="G102" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -8713,7 +8479,7 @@
         <v>47</v>
       </c>
       <c r="G103" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -8733,7 +8499,7 @@
         <v>47</v>
       </c>
       <c r="G104" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -8753,7 +8519,7 @@
         <v>47</v>
       </c>
       <c r="G105" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -8773,7 +8539,7 @@
         <v>47</v>
       </c>
       <c r="G106" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -8793,7 +8559,7 @@
         <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -8810,10 +8576,10 @@
         <v>-9684039.73</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="G108" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -8833,7 +8599,7 @@
         <v>47</v>
       </c>
       <c r="G109" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -8853,7 +8619,7 @@
         <v>47</v>
       </c>
       <c r="G110" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -8870,10 +8636,10 @@
         <v>-9212670.73</v>
       </c>
       <c r="F111" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="G111" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -8893,7 +8659,7 @@
         <v>47</v>
       </c>
       <c r="G112" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -8913,7 +8679,7 @@
         <v>47</v>
       </c>
       <c r="G113" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -8933,7 +8699,7 @@
         <v>47</v>
       </c>
       <c r="G114" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -8953,7 +8719,7 @@
         <v>47</v>
       </c>
       <c r="G115" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -8973,7 +8739,7 @@
         <v>47</v>
       </c>
       <c r="G116" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -8993,7 +8759,7 @@
         <v>47</v>
       </c>
       <c r="G117" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -9013,7 +8779,7 @@
         <v>47</v>
       </c>
       <c r="G118" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -9033,7 +8799,7 @@
         <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -9053,7 +8819,7 @@
         <v>47</v>
       </c>
       <c r="G120" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -9073,7 +8839,7 @@
         <v>47</v>
       </c>
       <c r="G121" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -9091,7 +8857,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -9454,7 +9220,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B34">
         <v>-8885398.796451611</v>
@@ -9494,7 +9260,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9523,6 +9289,26 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>44677</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2">
+        <v>600</v>
+      </c>
+      <c r="E2">
+        <v>-8873156.73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9530,7 +9316,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9557,6 +9343,86 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>44662</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>-8781795.130000001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>44665</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3">
+        <v>800</v>
+      </c>
+      <c r="E3">
+        <v>-10145568.13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>44670</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4">
+        <v>1500</v>
+      </c>
+      <c r="E4">
+        <v>-9274001.779999999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>44677</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5">
+        <v>600</v>
+      </c>
+      <c r="E5">
+        <v>-8873156.73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
